--- a/data/referenced_seabird_counts_steibl_et_al_2024_atoll_seabird_analysis.xlsx
+++ b/data/referenced_seabird_counts_steibl_et_al_2024_atoll_seabird_analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eeeefec1d7671f9/Dokumente/Postdoc/manuscripts/atoll_seabird_conservation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eeeefec1d7671f9/Dokumente/GitHub/atoll-seabirds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3960" documentId="13_ncr:1_{1AB84644-B09B-4289-B5B6-C48FC43CF581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C8222D-3FA0-488F-B9D0-1A2F3DB2B385}"/>
+  <xr:revisionPtr revIDLastSave="3965" documentId="13_ncr:1_{1AB84644-B09B-4289-B5B6-C48FC43CF581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A46AD731-47F4-4005-9FF7-84E76E007AC0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="226">
   <si>
     <t>atoll</t>
   </si>
@@ -763,11 +763,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD17C91-2620-4AF9-B443-22614BAA8B57}">
-  <dimension ref="A1:D861"/>
+  <dimension ref="A1:D862"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="A346" sqref="A346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3536,7 +3535,7 @@
       <c r="C177">
         <v>204</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5062,7 +5061,7 @@
       <c r="C286">
         <v>80</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="D286" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5894,27 +5893,27 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="B346" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="C346">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="D346" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B347" t="s">
         <v>113</v>
       </c>
       <c r="C347">
-        <v>53</v>
+        <v>1000</v>
       </c>
       <c r="D347" t="s">
         <v>104</v>
@@ -5922,13 +5921,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B348" t="s">
         <v>113</v>
       </c>
       <c r="C348">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D348" t="s">
         <v>104</v>
@@ -5936,13 +5935,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B349" t="s">
         <v>113</v>
       </c>
       <c r="C349">
-        <v>1020</v>
+        <v>50</v>
       </c>
       <c r="D349" t="s">
         <v>104</v>
@@ -5950,13 +5949,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B350" t="s">
         <v>113</v>
       </c>
       <c r="C350">
-        <v>20</v>
+        <v>1020</v>
       </c>
       <c r="D350" t="s">
         <v>104</v>
@@ -5964,7 +5963,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B351" t="s">
         <v>113</v>
@@ -5978,13 +5977,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B352" t="s">
         <v>113</v>
       </c>
       <c r="C352">
-        <v>1500</v>
+        <v>20</v>
       </c>
       <c r="D352" t="s">
         <v>104</v>
@@ -5992,13 +5991,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B353" t="s">
         <v>113</v>
       </c>
       <c r="C353">
-        <v>12</v>
+        <v>1500</v>
       </c>
       <c r="D353" t="s">
         <v>104</v>
@@ -6006,13 +6005,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B354" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C354">
-        <v>2000</v>
+        <v>12</v>
       </c>
       <c r="D354" t="s">
         <v>104</v>
@@ -6020,13 +6019,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B355" t="s">
         <v>110</v>
       </c>
       <c r="C355">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D355" t="s">
         <v>104</v>
@@ -6034,13 +6033,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B356" t="s">
         <v>110</v>
       </c>
       <c r="C356">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="D356" t="s">
         <v>104</v>
@@ -6048,13 +6047,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B357" t="s">
         <v>110</v>
       </c>
       <c r="C357">
-        <v>600</v>
+        <v>15</v>
       </c>
       <c r="D357" t="s">
         <v>104</v>
@@ -6062,13 +6061,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B358" t="s">
         <v>110</v>
       </c>
       <c r="C358">
-        <v>3</v>
+        <v>600</v>
       </c>
       <c r="D358" t="s">
         <v>104</v>
@@ -6076,13 +6075,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B359" t="s">
         <v>110</v>
       </c>
       <c r="C359">
-        <v>2000</v>
+        <v>3</v>
       </c>
       <c r="D359" t="s">
         <v>104</v>
@@ -6090,27 +6089,27 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B360" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C360">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="D360" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B361" t="s">
         <v>63</v>
       </c>
       <c r="C361">
-        <v>35000</v>
+        <v>600</v>
       </c>
       <c r="D361" t="s">
         <v>176</v>
@@ -6118,13 +6117,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B362" t="s">
         <v>63</v>
       </c>
       <c r="C362">
-        <v>4700</v>
+        <v>35000</v>
       </c>
       <c r="D362" t="s">
         <v>176</v>
@@ -6132,13 +6131,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="B363" t="s">
         <v>63</v>
       </c>
       <c r="C363">
-        <v>120</v>
+        <v>4700</v>
       </c>
       <c r="D363" t="s">
         <v>176</v>
@@ -6146,13 +6145,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="B364" t="s">
         <v>63</v>
       </c>
       <c r="C364">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="D364" t="s">
         <v>176</v>
@@ -6160,13 +6159,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B365" t="s">
         <v>63</v>
       </c>
       <c r="C365">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="D365" t="s">
         <v>176</v>
@@ -6174,13 +6173,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B366" t="s">
         <v>63</v>
       </c>
       <c r="C366">
-        <v>330000</v>
+        <v>900</v>
       </c>
       <c r="D366" t="s">
         <v>176</v>
@@ -6188,13 +6187,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B367" t="s">
         <v>63</v>
       </c>
       <c r="C367">
-        <v>1200</v>
+        <v>330000</v>
       </c>
       <c r="D367" t="s">
         <v>176</v>
@@ -6202,13 +6201,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B368" t="s">
         <v>63</v>
       </c>
       <c r="C368">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="D368" t="s">
         <v>176</v>
@@ -6216,13 +6215,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B369" t="s">
         <v>63</v>
       </c>
       <c r="C369">
-        <v>7800</v>
+        <v>4</v>
       </c>
       <c r="D369" t="s">
         <v>176</v>
@@ -6230,13 +6229,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="B370" t="s">
         <v>63</v>
       </c>
       <c r="C370">
-        <v>110</v>
+        <v>7800</v>
       </c>
       <c r="D370" t="s">
         <v>176</v>
@@ -6244,7 +6243,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="B371" t="s">
         <v>63</v>
@@ -6258,13 +6257,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B372" t="s">
         <v>63</v>
       </c>
       <c r="C372">
-        <v>950</v>
+        <v>110</v>
       </c>
       <c r="D372" t="s">
         <v>176</v>
@@ -6272,13 +6271,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B373" t="s">
         <v>63</v>
       </c>
       <c r="C373">
-        <v>2800</v>
+        <v>950</v>
       </c>
       <c r="D373" t="s">
         <v>176</v>
@@ -6286,27 +6285,27 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B374" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="C374">
-        <v>6600</v>
+        <v>2800</v>
       </c>
       <c r="D374" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B375" t="s">
         <v>177</v>
       </c>
       <c r="C375">
-        <v>9560</v>
+        <v>6600</v>
       </c>
       <c r="D375" t="s">
         <v>121</v>
@@ -6314,13 +6313,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B376" t="s">
         <v>177</v>
       </c>
       <c r="C376">
-        <v>50</v>
+        <v>9560</v>
       </c>
       <c r="D376" t="s">
         <v>121</v>
@@ -6328,13 +6327,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B377" t="s">
         <v>177</v>
       </c>
       <c r="C377">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D377" t="s">
         <v>121</v>
@@ -6342,16 +6341,16 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B378" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="C378">
-        <v>106514</v>
+        <v>150</v>
       </c>
       <c r="D378" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -6359,38 +6358,38 @@
         <v>71</v>
       </c>
       <c r="B379" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="C379">
-        <v>2</v>
+        <v>106514</v>
       </c>
       <c r="D379" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B380" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C380">
-        <v>570</v>
+        <v>2</v>
       </c>
       <c r="D380" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B381" t="s">
         <v>179</v>
       </c>
       <c r="C381">
-        <v>200000</v>
+        <v>570</v>
       </c>
       <c r="D381" t="s">
         <v>180</v>
@@ -6398,13 +6397,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B382" t="s">
         <v>179</v>
       </c>
       <c r="C382">
-        <v>46000</v>
+        <v>200000</v>
       </c>
       <c r="D382" t="s">
         <v>180</v>
@@ -6412,13 +6411,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B383" t="s">
         <v>179</v>
       </c>
       <c r="C383">
-        <v>12500</v>
+        <v>46000</v>
       </c>
       <c r="D383" t="s">
         <v>180</v>
@@ -6426,13 +6425,13 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B384" t="s">
         <v>179</v>
       </c>
       <c r="C384">
-        <v>100</v>
+        <v>12500</v>
       </c>
       <c r="D384" t="s">
         <v>180</v>
@@ -6440,13 +6439,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B385" t="s">
         <v>179</v>
       </c>
       <c r="C385">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="D385" t="s">
         <v>180</v>
@@ -6454,13 +6453,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B386" t="s">
         <v>179</v>
       </c>
       <c r="C386">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="D386" t="s">
         <v>180</v>
@@ -6468,13 +6467,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="B387" t="s">
         <v>179</v>
       </c>
       <c r="C387">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="D387" t="s">
         <v>180</v>
@@ -6482,13 +6481,13 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="B388" t="s">
         <v>179</v>
       </c>
       <c r="C388">
-        <v>1000000</v>
+        <v>700</v>
       </c>
       <c r="D388" t="s">
         <v>180</v>
@@ -6496,13 +6495,13 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B389" t="s">
         <v>179</v>
       </c>
       <c r="C389">
-        <v>1700</v>
+        <v>1000000</v>
       </c>
       <c r="D389" t="s">
         <v>180</v>
@@ -6510,13 +6509,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B390" t="s">
         <v>179</v>
       </c>
       <c r="C390">
-        <v>1920</v>
+        <v>1700</v>
       </c>
       <c r="D390" t="s">
         <v>180</v>
@@ -6524,13 +6523,13 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B391" t="s">
         <v>179</v>
       </c>
       <c r="C391">
-        <v>6100</v>
+        <v>1920</v>
       </c>
       <c r="D391" t="s">
         <v>180</v>
@@ -6538,13 +6537,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="B392" t="s">
         <v>179</v>
       </c>
       <c r="C392">
-        <v>7200</v>
+        <v>6100</v>
       </c>
       <c r="D392" t="s">
         <v>180</v>
@@ -6552,13 +6551,13 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B393" t="s">
         <v>179</v>
       </c>
       <c r="C393">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="D393" t="s">
         <v>180</v>
@@ -6566,13 +6565,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="B394" t="s">
         <v>179</v>
       </c>
       <c r="C394">
-        <v>50</v>
+        <v>11000</v>
       </c>
       <c r="D394" t="s">
         <v>180</v>
@@ -6580,7 +6579,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B395" t="s">
         <v>179</v>
@@ -6594,13 +6593,13 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B396" t="s">
         <v>179</v>
       </c>
       <c r="C396">
-        <v>5200</v>
+        <v>50</v>
       </c>
       <c r="D396" t="s">
         <v>180</v>
@@ -6608,13 +6607,13 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B397" t="s">
         <v>179</v>
       </c>
       <c r="C397">
-        <v>200</v>
+        <v>5200</v>
       </c>
       <c r="D397" t="s">
         <v>180</v>
@@ -6622,27 +6621,27 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B398" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C398">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D398" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B399" t="s">
         <v>182</v>
       </c>
       <c r="C399">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D399" t="s">
         <v>183</v>
@@ -6650,13 +6649,13 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B400" t="s">
         <v>182</v>
       </c>
       <c r="C400">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="D400" t="s">
         <v>183</v>
@@ -6664,13 +6663,13 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="B401" t="s">
         <v>182</v>
       </c>
       <c r="C401">
-        <v>20</v>
+        <v>15000</v>
       </c>
       <c r="D401" t="s">
         <v>183</v>
@@ -6678,13 +6677,13 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="B402" t="s">
         <v>182</v>
       </c>
       <c r="C402">
-        <v>450</v>
+        <v>20</v>
       </c>
       <c r="D402" t="s">
         <v>183</v>
@@ -6692,13 +6691,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B403" t="s">
         <v>182</v>
       </c>
       <c r="C403">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="D403" t="s">
         <v>183</v>
@@ -6706,13 +6705,13 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="B404" t="s">
         <v>182</v>
       </c>
       <c r="C404">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="D404" t="s">
         <v>183</v>
@@ -6720,13 +6719,13 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B405" t="s">
         <v>182</v>
       </c>
       <c r="C405">
-        <v>20000</v>
+        <v>80</v>
       </c>
       <c r="D405" t="s">
         <v>183</v>
@@ -6734,13 +6733,13 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B406" t="s">
         <v>182</v>
       </c>
       <c r="C406">
-        <v>50</v>
+        <v>20000</v>
       </c>
       <c r="D406" t="s">
         <v>183</v>
@@ -6748,13 +6747,13 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B407" t="s">
         <v>182</v>
       </c>
       <c r="C407">
-        <v>2300</v>
+        <v>50</v>
       </c>
       <c r="D407" t="s">
         <v>183</v>
@@ -6762,13 +6761,13 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="B408" t="s">
         <v>182</v>
       </c>
       <c r="C408">
-        <v>2</v>
+        <v>2300</v>
       </c>
       <c r="D408" t="s">
         <v>183</v>
@@ -6776,13 +6775,13 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B409" t="s">
         <v>182</v>
       </c>
       <c r="C409">
-        <v>50000</v>
+        <v>2</v>
       </c>
       <c r="D409" t="s">
         <v>183</v>
@@ -6790,13 +6789,13 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B410" t="s">
         <v>182</v>
       </c>
       <c r="C410">
-        <v>7000</v>
+        <v>50000</v>
       </c>
       <c r="D410" t="s">
         <v>183</v>
@@ -6804,13 +6803,13 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B411" t="s">
         <v>182</v>
       </c>
       <c r="C411">
-        <v>1200</v>
+        <v>7000</v>
       </c>
       <c r="D411" t="s">
         <v>183</v>
@@ -6818,13 +6817,13 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B412" t="s">
         <v>182</v>
       </c>
       <c r="C412">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="D412" t="s">
         <v>183</v>
@@ -6832,13 +6831,13 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="B413" t="s">
         <v>182</v>
       </c>
       <c r="C413">
-        <v>140</v>
+        <v>480</v>
       </c>
       <c r="D413" t="s">
         <v>183</v>
@@ -6846,13 +6845,13 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B414" t="s">
         <v>182</v>
       </c>
       <c r="C414">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D414" t="s">
         <v>183</v>
@@ -6860,13 +6859,13 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B415" t="s">
         <v>182</v>
       </c>
       <c r="C415">
-        <v>3000</v>
+        <v>110</v>
       </c>
       <c r="D415" t="s">
         <v>183</v>
@@ -6874,27 +6873,27 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B416" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="C416">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="D416" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B417" t="s">
         <v>116</v>
       </c>
       <c r="C417">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D417" t="s">
         <v>104</v>
@@ -6902,13 +6901,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B418" t="s">
         <v>116</v>
       </c>
       <c r="C418">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="D418" t="s">
         <v>104</v>
@@ -6916,13 +6915,13 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B419" t="s">
         <v>116</v>
       </c>
       <c r="C419">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="D419" t="s">
         <v>104</v>
@@ -6930,13 +6929,13 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B420" t="s">
         <v>116</v>
       </c>
       <c r="C420">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D420" t="s">
         <v>104</v>
@@ -6944,27 +6943,27 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B421" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="C421">
-        <v>2678</v>
+        <v>29</v>
       </c>
       <c r="D421" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B422" t="s">
         <v>187</v>
       </c>
       <c r="C422">
-        <v>132</v>
+        <v>2678</v>
       </c>
       <c r="D422" t="s">
         <v>188</v>
@@ -6972,13 +6971,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B423" t="s">
         <v>187</v>
       </c>
       <c r="C423">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D423" t="s">
         <v>188</v>
@@ -6986,13 +6985,13 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B424" t="s">
         <v>187</v>
       </c>
       <c r="C424">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="D424" t="s">
         <v>188</v>
@@ -7000,13 +6999,13 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B425" t="s">
         <v>187</v>
       </c>
       <c r="C425">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="D425" t="s">
         <v>188</v>
@@ -7014,13 +7013,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B426" t="s">
         <v>187</v>
       </c>
       <c r="C426">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D426" t="s">
         <v>188</v>
@@ -7028,13 +7027,13 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B427" t="s">
         <v>187</v>
       </c>
       <c r="C427">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D427" t="s">
         <v>188</v>
@@ -7042,27 +7041,27 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B428" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C428">
-        <v>4000</v>
+        <v>43</v>
       </c>
       <c r="D428" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B429" t="s">
         <v>169</v>
       </c>
       <c r="C429">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="D429" t="s">
         <v>183</v>
@@ -7070,13 +7069,13 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B430" t="s">
         <v>169</v>
       </c>
       <c r="C430">
-        <v>300000</v>
+        <v>25000</v>
       </c>
       <c r="D430" t="s">
         <v>183</v>
@@ -7084,13 +7083,13 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="B431" t="s">
         <v>169</v>
       </c>
       <c r="C431">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="D431" t="s">
         <v>183</v>
@@ -7098,13 +7097,13 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="B432" t="s">
         <v>169</v>
       </c>
       <c r="C432">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="D432" t="s">
         <v>183</v>
@@ -7112,13 +7111,13 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B433" t="s">
         <v>169</v>
       </c>
       <c r="C433">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="D433" t="s">
         <v>183</v>
@@ -7126,13 +7125,13 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="B434" t="s">
         <v>169</v>
       </c>
       <c r="C434">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D434" t="s">
         <v>183</v>
@@ -7140,13 +7139,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B435" t="s">
         <v>169</v>
       </c>
       <c r="C435">
-        <v>850000</v>
+        <v>4000</v>
       </c>
       <c r="D435" t="s">
         <v>183</v>
@@ -7154,13 +7153,13 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B436" t="s">
         <v>169</v>
       </c>
       <c r="C436">
-        <v>15000</v>
+        <v>850000</v>
       </c>
       <c r="D436" t="s">
         <v>183</v>
@@ -7168,13 +7167,13 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B437" t="s">
         <v>169</v>
       </c>
       <c r="C437">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="D437" t="s">
         <v>183</v>
@@ -7182,13 +7181,13 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="B438" t="s">
         <v>169</v>
       </c>
       <c r="C438">
-        <v>280000</v>
+        <v>4000</v>
       </c>
       <c r="D438" t="s">
         <v>183</v>
@@ -7196,13 +7195,13 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B439" t="s">
         <v>169</v>
       </c>
       <c r="C439">
-        <v>46000</v>
+        <v>280000</v>
       </c>
       <c r="D439" t="s">
         <v>183</v>
@@ -7210,13 +7209,13 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B440" t="s">
         <v>169</v>
       </c>
       <c r="C440">
-        <v>140000</v>
+        <v>46000</v>
       </c>
       <c r="D440" t="s">
         <v>183</v>
@@ -7224,13 +7223,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B441" t="s">
         <v>169</v>
       </c>
       <c r="C441">
-        <v>3500</v>
+        <v>140000</v>
       </c>
       <c r="D441" t="s">
         <v>183</v>
@@ -7238,13 +7237,13 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="B442" t="s">
         <v>169</v>
       </c>
       <c r="C442">
-        <v>850</v>
+        <v>3500</v>
       </c>
       <c r="D442" t="s">
         <v>183</v>
@@ -7252,13 +7251,13 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B443" t="s">
         <v>169</v>
       </c>
       <c r="C443">
-        <v>70</v>
+        <v>850</v>
       </c>
       <c r="D443" t="s">
         <v>183</v>
@@ -7266,13 +7265,13 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B444" t="s">
         <v>169</v>
       </c>
       <c r="C444">
-        <v>550</v>
+        <v>70</v>
       </c>
       <c r="D444" t="s">
         <v>183</v>
@@ -7280,13 +7279,13 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B445" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C445">
-        <v>1500</v>
+        <v>550</v>
       </c>
       <c r="D445" t="s">
         <v>183</v>
@@ -7294,13 +7293,13 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B446" t="s">
         <v>186</v>
       </c>
       <c r="C446">
-        <v>20000</v>
+        <v>1500</v>
       </c>
       <c r="D446" t="s">
         <v>183</v>
@@ -7308,13 +7307,13 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B447" t="s">
         <v>186</v>
       </c>
       <c r="C447">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D447" t="s">
         <v>183</v>
@@ -7322,13 +7321,13 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="B448" t="s">
         <v>186</v>
       </c>
       <c r="C448">
-        <v>150</v>
+        <v>40000</v>
       </c>
       <c r="D448" t="s">
         <v>183</v>
@@ -7336,13 +7335,13 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="B449" t="s">
         <v>186</v>
       </c>
       <c r="C449">
-        <v>1600</v>
+        <v>150</v>
       </c>
       <c r="D449" t="s">
         <v>183</v>
@@ -7350,13 +7349,13 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B450" t="s">
         <v>186</v>
       </c>
       <c r="C450">
-        <v>150</v>
+        <v>1600</v>
       </c>
       <c r="D450" t="s">
         <v>183</v>
@@ -7364,13 +7363,13 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B451" t="s">
         <v>186</v>
       </c>
       <c r="C451">
-        <v>1000000</v>
+        <v>150</v>
       </c>
       <c r="D451" t="s">
         <v>183</v>
@@ -7378,13 +7377,13 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B452" t="s">
         <v>186</v>
       </c>
       <c r="C452">
-        <v>35000</v>
+        <v>1000000</v>
       </c>
       <c r="D452" t="s">
         <v>183</v>
@@ -7392,41 +7391,41 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B453" t="s">
         <v>186</v>
       </c>
       <c r="C453">
-        <v>4500</v>
+        <v>35000</v>
       </c>
       <c r="D453" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="B454" t="s">
         <v>186</v>
       </c>
       <c r="C454">
-        <v>53000</v>
+        <v>4500</v>
       </c>
       <c r="D454" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B455" t="s">
         <v>186</v>
       </c>
       <c r="C455">
-        <v>4200</v>
+        <v>53000</v>
       </c>
       <c r="D455" t="s">
         <v>183</v>
@@ -7434,13 +7433,13 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B456" t="s">
         <v>186</v>
       </c>
       <c r="C456">
-        <v>400000</v>
+        <v>4200</v>
       </c>
       <c r="D456" t="s">
         <v>183</v>
@@ -7448,13 +7447,13 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B457" t="s">
         <v>186</v>
       </c>
       <c r="C457">
-        <v>1000</v>
+        <v>400000</v>
       </c>
       <c r="D457" t="s">
         <v>183</v>
@@ -7462,13 +7461,13 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="B458" t="s">
         <v>186</v>
       </c>
       <c r="C458">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="D458" t="s">
         <v>183</v>
@@ -7476,13 +7475,13 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B459" t="s">
         <v>186</v>
       </c>
       <c r="C459">
-        <v>40</v>
+        <v>650</v>
       </c>
       <c r="D459" t="s">
         <v>183</v>
@@ -7490,13 +7489,13 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B460" t="s">
         <v>186</v>
       </c>
       <c r="C460">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="D460" t="s">
         <v>183</v>
@@ -7504,41 +7503,41 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B461" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="C461">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="D461" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B462" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="C462">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D462" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B463" t="s">
         <v>189</v>
       </c>
       <c r="C463">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D463" t="s">
         <v>190</v>
@@ -7546,13 +7545,13 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B464" t="s">
         <v>189</v>
       </c>
       <c r="C464">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D464" t="s">
         <v>190</v>
@@ -7560,13 +7559,13 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B465" t="s">
         <v>189</v>
       </c>
       <c r="C465">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="D465" t="s">
         <v>190</v>
@@ -7574,13 +7573,13 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B466" t="s">
         <v>189</v>
       </c>
       <c r="C466">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="D466" t="s">
         <v>190</v>
@@ -7588,13 +7587,13 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B467" t="s">
         <v>189</v>
       </c>
       <c r="C467">
-        <v>500000</v>
+        <v>6000</v>
       </c>
       <c r="D467" t="s">
         <v>190</v>
@@ -7602,13 +7601,13 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B468" t="s">
         <v>189</v>
       </c>
       <c r="C468">
-        <v>14000</v>
+        <v>500000</v>
       </c>
       <c r="D468" t="s">
         <v>190</v>
@@ -7616,13 +7615,13 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B469" t="s">
         <v>189</v>
       </c>
       <c r="C469">
-        <v>100</v>
+        <v>14000</v>
       </c>
       <c r="D469" t="s">
         <v>190</v>
@@ -7630,13 +7629,13 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B470" t="s">
         <v>189</v>
       </c>
       <c r="C470">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="D470" t="s">
         <v>190</v>
@@ -7644,13 +7643,13 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B471" t="s">
         <v>189</v>
       </c>
       <c r="C471">
-        <v>400</v>
+        <v>20000</v>
       </c>
       <c r="D471" t="s">
         <v>190</v>
@@ -7658,13 +7657,13 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B472" t="s">
         <v>189</v>
       </c>
       <c r="C472">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="D472" t="s">
         <v>190</v>
@@ -7672,27 +7671,27 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B473" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="C473">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D473" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B474" t="s">
         <v>6</v>
       </c>
       <c r="C474">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D474" t="s">
         <v>8</v>
@@ -7700,13 +7699,13 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B475" t="s">
         <v>6</v>
       </c>
       <c r="C475">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D475" t="s">
         <v>8</v>
@@ -7714,7 +7713,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B476" t="s">
         <v>6</v>
@@ -7728,13 +7727,13 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B477" t="s">
         <v>6</v>
       </c>
       <c r="C477">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="D477" t="s">
         <v>8</v>
@@ -7742,13 +7741,13 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B478" t="s">
         <v>6</v>
       </c>
       <c r="C478">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="D478" t="s">
         <v>8</v>
@@ -7756,13 +7755,13 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B479" t="s">
         <v>6</v>
       </c>
       <c r="C479">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="D479" t="s">
         <v>8</v>
@@ -7770,13 +7769,13 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B480" t="s">
         <v>6</v>
       </c>
       <c r="C480">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D480" t="s">
         <v>8</v>
@@ -7784,13 +7783,13 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B481" t="s">
         <v>6</v>
       </c>
       <c r="C481">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D481" t="s">
         <v>8</v>
@@ -7798,16 +7797,16 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B482" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C482">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D482" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -7815,10 +7814,10 @@
         <v>75</v>
       </c>
       <c r="B483" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="C483">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="D483" t="s">
         <v>45</v>
@@ -7826,13 +7825,13 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B484" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="C484">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="D484" t="s">
         <v>45</v>
@@ -7840,13 +7839,13 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B485" t="s">
         <v>27</v>
       </c>
       <c r="C485">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D485" t="s">
         <v>45</v>
@@ -7854,13 +7853,13 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B486" t="s">
         <v>27</v>
       </c>
       <c r="C486">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="D486" t="s">
         <v>45</v>
@@ -7868,13 +7867,13 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B487" t="s">
         <v>27</v>
       </c>
       <c r="C487">
-        <v>442</v>
+        <v>220</v>
       </c>
       <c r="D487" t="s">
         <v>45</v>
@@ -7882,13 +7881,13 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B488" t="s">
         <v>27</v>
       </c>
       <c r="C488">
-        <v>88</v>
+        <v>442</v>
       </c>
       <c r="D488" t="s">
         <v>45</v>
@@ -7896,13 +7895,13 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B489" t="s">
         <v>27</v>
       </c>
       <c r="C489">
-        <v>397</v>
+        <v>88</v>
       </c>
       <c r="D489" t="s">
         <v>45</v>
@@ -7910,27 +7909,27 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B490" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C490">
-        <v>6</v>
+        <v>397</v>
       </c>
       <c r="D490" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B491" t="s">
         <v>39</v>
       </c>
       <c r="C491">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D491" t="s">
         <v>57</v>
@@ -7938,13 +7937,13 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B492" t="s">
         <v>39</v>
       </c>
       <c r="C492">
-        <v>228</v>
+        <v>562</v>
       </c>
       <c r="D492" t="s">
         <v>57</v>
@@ -7952,13 +7951,13 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B493" t="s">
         <v>39</v>
       </c>
       <c r="C493">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="D493" t="s">
         <v>57</v>
@@ -7966,13 +7965,13 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B494" t="s">
         <v>39</v>
       </c>
       <c r="C494">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D494" t="s">
         <v>57</v>
@@ -7980,13 +7979,13 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B495" t="s">
         <v>39</v>
       </c>
       <c r="C495">
-        <v>546022</v>
+        <v>138</v>
       </c>
       <c r="D495" t="s">
         <v>57</v>
@@ -7994,13 +7993,13 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B496" t="s">
         <v>39</v>
       </c>
       <c r="C496">
-        <v>48</v>
+        <v>546022</v>
       </c>
       <c r="D496" t="s">
         <v>57</v>
@@ -8008,13 +8007,13 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B497" t="s">
         <v>39</v>
       </c>
       <c r="C497">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D497" t="s">
         <v>57</v>
@@ -8022,13 +8021,13 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B498" t="s">
         <v>39</v>
       </c>
       <c r="C498">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="D498" t="s">
         <v>57</v>
@@ -8036,13 +8035,13 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B499" t="s">
         <v>39</v>
       </c>
       <c r="C499">
-        <v>263</v>
+        <v>96</v>
       </c>
       <c r="D499" t="s">
         <v>57</v>
@@ -8050,13 +8049,13 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B500" t="s">
         <v>39</v>
       </c>
       <c r="C500">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="D500" t="s">
         <v>57</v>
@@ -8064,27 +8063,27 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B501" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C501">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D501" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B502" t="s">
         <v>2</v>
       </c>
       <c r="C502">
-        <v>3260</v>
+        <v>12</v>
       </c>
       <c r="D502" t="s">
         <v>8</v>
@@ -8092,13 +8091,13 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B503" t="s">
         <v>2</v>
       </c>
       <c r="C503">
-        <v>2</v>
+        <v>3260</v>
       </c>
       <c r="D503" t="s">
         <v>8</v>
@@ -8106,41 +8105,41 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B504" t="s">
         <v>2</v>
       </c>
       <c r="C504">
-        <v>85000</v>
+        <v>2</v>
       </c>
       <c r="D504" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B505" t="s">
         <v>2</v>
       </c>
       <c r="C505">
-        <v>800</v>
+        <v>85000</v>
       </c>
       <c r="D505" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B506" t="s">
         <v>2</v>
       </c>
       <c r="C506">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D506" t="s">
         <v>8</v>
@@ -8148,13 +8147,13 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="B507" t="s">
         <v>2</v>
       </c>
       <c r="C507">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D507" t="s">
         <v>8</v>
@@ -8162,13 +8161,13 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="B508" t="s">
         <v>2</v>
       </c>
       <c r="C508">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="D508" t="s">
         <v>8</v>
@@ -8176,13 +8175,13 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B509" t="s">
         <v>2</v>
       </c>
       <c r="C509">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="D509" t="s">
         <v>8</v>
@@ -8190,13 +8189,13 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B510" t="s">
         <v>2</v>
       </c>
       <c r="C510">
-        <v>68</v>
+        <v>800</v>
       </c>
       <c r="D510" t="s">
         <v>8</v>
@@ -8204,13 +8203,13 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="B511" t="s">
         <v>2</v>
       </c>
       <c r="C511">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D511" t="s">
         <v>8</v>
@@ -8218,13 +8217,13 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="B512" t="s">
         <v>2</v>
       </c>
       <c r="C512">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="D512" t="s">
         <v>8</v>
@@ -8232,13 +8231,13 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B513" t="s">
         <v>2</v>
       </c>
       <c r="C513">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="D513" t="s">
         <v>8</v>
@@ -8246,13 +8245,13 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B514" t="s">
         <v>2</v>
       </c>
       <c r="C514">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D514" t="s">
         <v>8</v>
@@ -8260,27 +8259,27 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B515" t="s">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="C515">
-        <v>8000</v>
+        <v>120</v>
       </c>
       <c r="D515" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B516" t="s">
         <v>170</v>
       </c>
       <c r="C516">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="D516" t="s">
         <v>183</v>
@@ -8288,13 +8287,13 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B517" t="s">
         <v>170</v>
       </c>
       <c r="C517">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D517" t="s">
         <v>183</v>
@@ -8302,13 +8301,13 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="B518" t="s">
         <v>170</v>
       </c>
       <c r="C518">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="D518" t="s">
         <v>183</v>
@@ -8316,13 +8315,13 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="B519" t="s">
         <v>170</v>
       </c>
       <c r="C519">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D519" t="s">
         <v>183</v>
@@ -8330,13 +8329,13 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B520" t="s">
         <v>170</v>
       </c>
       <c r="C520">
-        <v>40000</v>
+        <v>140</v>
       </c>
       <c r="D520" t="s">
         <v>183</v>
@@ -8344,13 +8343,13 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="B521" t="s">
         <v>170</v>
       </c>
       <c r="C521">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D521" t="s">
         <v>183</v>
@@ -8358,13 +8357,13 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B522" t="s">
         <v>170</v>
       </c>
       <c r="C522">
-        <v>200000</v>
+        <v>100</v>
       </c>
       <c r="D522" t="s">
         <v>183</v>
@@ -8372,13 +8371,13 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B523" t="s">
         <v>170</v>
       </c>
       <c r="C523">
-        <v>2000</v>
+        <v>200000</v>
       </c>
       <c r="D523" t="s">
         <v>183</v>
@@ -8386,13 +8385,13 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B524" t="s">
         <v>170</v>
       </c>
       <c r="C524">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="D524" t="s">
         <v>183</v>
@@ -8400,41 +8399,41 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B525" t="s">
         <v>170</v>
       </c>
       <c r="C525">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="D525" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="B526" t="s">
         <v>170</v>
       </c>
       <c r="C526">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="D526" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B527" t="s">
         <v>170</v>
       </c>
       <c r="C527">
-        <v>1200000</v>
+        <v>2</v>
       </c>
       <c r="D527" t="s">
         <v>183</v>
@@ -8442,13 +8441,13 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B528" t="s">
         <v>170</v>
       </c>
       <c r="C528">
-        <v>56000</v>
+        <v>1200000</v>
       </c>
       <c r="D528" t="s">
         <v>183</v>
@@ -8456,13 +8455,13 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B529" t="s">
         <v>170</v>
       </c>
       <c r="C529">
-        <v>300000</v>
+        <v>56000</v>
       </c>
       <c r="D529" t="s">
         <v>183</v>
@@ -8470,13 +8469,13 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B530" t="s">
         <v>170</v>
       </c>
       <c r="C530">
-        <v>400</v>
+        <v>300000</v>
       </c>
       <c r="D530" t="s">
         <v>183</v>
@@ -8484,13 +8483,13 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="B531" t="s">
         <v>170</v>
       </c>
       <c r="C531">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="D531" t="s">
         <v>183</v>
@@ -8498,13 +8497,13 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B532" t="s">
         <v>170</v>
       </c>
       <c r="C532">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D532" t="s">
         <v>183</v>
@@ -8512,13 +8511,13 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B533" t="s">
         <v>170</v>
       </c>
       <c r="C533">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="D533" t="s">
         <v>183</v>
@@ -8526,27 +8525,27 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B534" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="C534">
-        <v>26</v>
+        <v>950</v>
       </c>
       <c r="D534" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B535" t="s">
         <v>29</v>
       </c>
       <c r="C535">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="D535" t="s">
         <v>45</v>
@@ -8554,13 +8553,13 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B536" t="s">
         <v>29</v>
       </c>
       <c r="C536">
-        <v>173</v>
+        <v>900</v>
       </c>
       <c r="D536" t="s">
         <v>45</v>
@@ -8568,13 +8567,13 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B537" t="s">
         <v>29</v>
       </c>
       <c r="C537">
-        <v>1260</v>
+        <v>173</v>
       </c>
       <c r="D537" t="s">
         <v>45</v>
@@ -8582,13 +8581,13 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B538" t="s">
         <v>29</v>
       </c>
       <c r="C538">
-        <v>33</v>
+        <v>1260</v>
       </c>
       <c r="D538" t="s">
         <v>45</v>
@@ -8596,13 +8595,13 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B539" t="s">
         <v>29</v>
       </c>
       <c r="C539">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D539" t="s">
         <v>45</v>
@@ -8610,13 +8609,13 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="B540" t="s">
         <v>29</v>
       </c>
       <c r="C540">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="D540" t="s">
         <v>45</v>
@@ -8624,13 +8623,13 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B541" t="s">
         <v>29</v>
       </c>
       <c r="C541">
-        <v>316</v>
+        <v>190</v>
       </c>
       <c r="D541" t="s">
         <v>45</v>
@@ -8638,27 +8637,27 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B542" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C542">
-        <v>1000</v>
+        <v>316</v>
       </c>
       <c r="D542" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B543" t="s">
         <v>5</v>
       </c>
       <c r="C543">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="D543" t="s">
         <v>8</v>
@@ -8666,13 +8665,13 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B544" t="s">
         <v>5</v>
       </c>
       <c r="C544">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D544" t="s">
         <v>8</v>
@@ -8680,13 +8679,13 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B545" t="s">
         <v>5</v>
       </c>
       <c r="C545">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D545" t="s">
         <v>8</v>
@@ -8694,13 +8693,13 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B546" t="s">
         <v>5</v>
       </c>
       <c r="C546">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="D546" t="s">
         <v>8</v>
@@ -8708,13 +8707,13 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B547" t="s">
         <v>5</v>
       </c>
       <c r="C547">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="D547" t="s">
         <v>8</v>
@@ -8722,13 +8721,13 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B548" t="s">
         <v>5</v>
       </c>
       <c r="C548">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D548" t="s">
         <v>8</v>
@@ -8736,13 +8735,13 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B549" t="s">
         <v>5</v>
       </c>
       <c r="C549">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D549" t="s">
         <v>8</v>
@@ -8750,13 +8749,13 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B550" t="s">
         <v>5</v>
       </c>
       <c r="C550">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="D550" t="s">
         <v>8</v>
@@ -8764,13 +8763,13 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B551" t="s">
         <v>5</v>
       </c>
       <c r="C551">
-        <v>400</v>
+        <v>8</v>
       </c>
       <c r="D551" t="s">
         <v>8</v>
@@ -8778,27 +8777,27 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B552" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C552">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="D552" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B553" t="s">
         <v>42</v>
       </c>
       <c r="C553">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D553" t="s">
         <v>43</v>
@@ -8806,13 +8805,13 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B554" t="s">
         <v>42</v>
       </c>
       <c r="C554">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D554" t="s">
         <v>43</v>
@@ -8820,13 +8819,13 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B555" t="s">
         <v>42</v>
       </c>
       <c r="C555">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="D555" t="s">
         <v>43</v>
@@ -8834,13 +8833,13 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B556" t="s">
         <v>42</v>
       </c>
       <c r="C556">
-        <v>10</v>
+        <v>3200</v>
       </c>
       <c r="D556" t="s">
         <v>43</v>
@@ -8848,13 +8847,13 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B557" t="s">
         <v>42</v>
       </c>
       <c r="C557">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D557" t="s">
         <v>43</v>
@@ -8862,13 +8861,13 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B558" t="s">
         <v>42</v>
       </c>
       <c r="C558">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D558" t="s">
         <v>43</v>
@@ -8876,7 +8875,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B559" t="s">
         <v>42</v>
@@ -8890,13 +8889,13 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B560" t="s">
         <v>42</v>
       </c>
       <c r="C560">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="D560" t="s">
         <v>43</v>
@@ -8904,27 +8903,27 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B561" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C561">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="D561" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B562" t="s">
         <v>17</v>
       </c>
       <c r="C562">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D562" t="s">
         <v>16</v>
@@ -8932,13 +8931,13 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B563" t="s">
         <v>17</v>
       </c>
       <c r="C563">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="D563" t="s">
         <v>16</v>
@@ -8946,27 +8945,27 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B564" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C564">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="D564" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B565" t="s">
         <v>61</v>
       </c>
       <c r="C565">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D565" t="s">
         <v>62</v>
@@ -8974,13 +8973,13 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B566" t="s">
         <v>61</v>
       </c>
       <c r="C566">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D566" t="s">
         <v>62</v>
@@ -8988,13 +8987,13 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B567" t="s">
         <v>61</v>
       </c>
       <c r="C567">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D567" t="s">
         <v>62</v>
@@ -9002,13 +9001,13 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B568" t="s">
         <v>61</v>
       </c>
       <c r="C568">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D568" t="s">
         <v>62</v>
@@ -9016,13 +9015,13 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B569" t="s">
         <v>61</v>
       </c>
       <c r="C569">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D569" t="s">
         <v>62</v>
@@ -9030,13 +9029,13 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B570" t="s">
         <v>61</v>
       </c>
       <c r="C570">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D570" t="s">
         <v>62</v>
@@ -9044,27 +9043,27 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B571" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="C571">
         <v>200</v>
       </c>
       <c r="D571" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B572" t="s">
         <v>193</v>
       </c>
       <c r="C572">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="D572" t="s">
         <v>153</v>
@@ -9072,13 +9071,13 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B573" t="s">
         <v>193</v>
       </c>
       <c r="C573">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="D573" t="s">
         <v>153</v>
@@ -9086,13 +9085,13 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B574" t="s">
         <v>193</v>
       </c>
       <c r="C574">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D574" t="s">
         <v>153</v>
@@ -9100,13 +9099,13 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B575" t="s">
         <v>193</v>
       </c>
       <c r="C575">
-        <v>1440</v>
+        <v>2000</v>
       </c>
       <c r="D575" t="s">
         <v>153</v>
@@ -9114,41 +9113,41 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B576" t="s">
         <v>193</v>
       </c>
       <c r="C576">
-        <v>32</v>
+        <v>1440</v>
       </c>
       <c r="D576" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="B577" t="s">
         <v>193</v>
       </c>
       <c r="C577">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="D577" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B578" t="s">
         <v>193</v>
       </c>
       <c r="C578">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="D578" t="s">
         <v>149</v>
@@ -9156,27 +9155,27 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B579" t="s">
         <v>193</v>
       </c>
       <c r="C579">
-        <v>550</v>
+        <v>25000</v>
       </c>
       <c r="D579" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B580" t="s">
         <v>193</v>
       </c>
       <c r="C580">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="D580" t="s">
         <v>153</v>
@@ -9184,27 +9183,27 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B581" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="C581">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="D581" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B582" t="s">
         <v>4</v>
       </c>
       <c r="C582">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="D582" t="s">
         <v>8</v>
@@ -9212,13 +9211,13 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B583" t="s">
         <v>4</v>
       </c>
       <c r="C583">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="D583" t="s">
         <v>8</v>
@@ -9226,13 +9225,13 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B584" t="s">
         <v>4</v>
       </c>
       <c r="C584">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="D584" t="s">
         <v>8</v>
@@ -9240,13 +9239,13 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B585" t="s">
         <v>4</v>
       </c>
       <c r="C585">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="D585" t="s">
         <v>8</v>
@@ -9254,13 +9253,13 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B586" t="s">
         <v>4</v>
       </c>
       <c r="C586">
-        <v>1200000</v>
+        <v>600</v>
       </c>
       <c r="D586" t="s">
         <v>8</v>
@@ -9268,13 +9267,13 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B587" t="s">
         <v>4</v>
       </c>
       <c r="C587">
-        <v>100</v>
+        <v>1200000</v>
       </c>
       <c r="D587" t="s">
         <v>8</v>
@@ -9282,13 +9281,13 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B588" t="s">
         <v>4</v>
       </c>
       <c r="C588">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D588" t="s">
         <v>8</v>
@@ -9296,13 +9295,13 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B589" t="s">
         <v>4</v>
       </c>
       <c r="C589">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D589" t="s">
         <v>8</v>
@@ -9310,27 +9309,27 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B590" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C590">
         <v>1000</v>
       </c>
       <c r="D590" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B591" t="s">
         <v>9</v>
       </c>
       <c r="C591">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="D591" t="s">
         <v>10</v>
@@ -9338,13 +9337,13 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B592" t="s">
         <v>9</v>
       </c>
       <c r="C592">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D592" t="s">
         <v>10</v>
@@ -9352,13 +9351,13 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B593" t="s">
         <v>9</v>
       </c>
       <c r="C593">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="D593" t="s">
         <v>10</v>
@@ -9366,13 +9365,13 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B594" t="s">
         <v>9</v>
       </c>
       <c r="C594">
-        <v>865</v>
+        <v>136</v>
       </c>
       <c r="D594" t="s">
         <v>10</v>
@@ -9380,27 +9379,27 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B595" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="C595">
-        <v>6498</v>
+        <v>865</v>
       </c>
       <c r="D595" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B596" t="s">
         <v>195</v>
       </c>
       <c r="C596">
-        <v>564</v>
+        <v>6498</v>
       </c>
       <c r="D596" t="s">
         <v>196</v>
@@ -9408,13 +9407,13 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B597" t="s">
         <v>195</v>
       </c>
       <c r="C597">
-        <v>400</v>
+        <v>564</v>
       </c>
       <c r="D597" t="s">
         <v>196</v>
@@ -9422,13 +9421,13 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B598" t="s">
         <v>195</v>
       </c>
       <c r="C598">
-        <v>508</v>
+        <v>400</v>
       </c>
       <c r="D598" t="s">
         <v>196</v>
@@ -9436,13 +9435,13 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B599" t="s">
         <v>195</v>
       </c>
       <c r="C599">
-        <v>876000</v>
+        <v>508</v>
       </c>
       <c r="D599" t="s">
         <v>196</v>
@@ -9450,13 +9449,13 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B600" t="s">
         <v>195</v>
       </c>
       <c r="C600">
-        <v>8</v>
+        <v>876000</v>
       </c>
       <c r="D600" t="s">
         <v>196</v>
@@ -9464,13 +9463,13 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B601" t="s">
         <v>195</v>
       </c>
       <c r="C601">
-        <v>261</v>
+        <v>8</v>
       </c>
       <c r="D601" t="s">
         <v>196</v>
@@ -9478,13 +9477,13 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B602" t="s">
         <v>195</v>
       </c>
       <c r="C602">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="D602" t="s">
         <v>196</v>
@@ -9492,13 +9491,13 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B603" t="s">
         <v>195</v>
       </c>
       <c r="C603">
-        <v>742</v>
+        <v>70</v>
       </c>
       <c r="D603" t="s">
         <v>196</v>
@@ -9506,13 +9505,13 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B604" t="s">
         <v>195</v>
       </c>
       <c r="C604">
-        <v>25000</v>
+        <v>742</v>
       </c>
       <c r="D604" t="s">
         <v>196</v>
@@ -9520,27 +9519,27 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B605" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="C605">
-        <v>40</v>
+        <v>25000</v>
       </c>
       <c r="D605" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B606" t="s">
         <v>32</v>
       </c>
       <c r="C606">
-        <v>494</v>
+        <v>40</v>
       </c>
       <c r="D606" t="s">
         <v>45</v>
@@ -9548,13 +9547,13 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B607" t="s">
         <v>32</v>
       </c>
       <c r="C607">
-        <v>18</v>
+        <v>494</v>
       </c>
       <c r="D607" t="s">
         <v>45</v>
@@ -9562,13 +9561,13 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B608" t="s">
         <v>32</v>
       </c>
       <c r="C608">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D608" t="s">
         <v>45</v>
@@ -9576,27 +9575,27 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B609" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="C609">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="D609" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B610" t="s">
         <v>185</v>
       </c>
       <c r="C610">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="D610" t="s">
         <v>183</v>
@@ -9604,13 +9603,13 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B611" t="s">
         <v>185</v>
       </c>
       <c r="C611">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="D611" t="s">
         <v>183</v>
@@ -9618,13 +9617,13 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="B612" t="s">
         <v>185</v>
       </c>
       <c r="C612">
-        <v>20</v>
+        <v>15000</v>
       </c>
       <c r="D612" t="s">
         <v>183</v>
@@ -9632,13 +9631,13 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="2" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="B613" t="s">
         <v>185</v>
       </c>
       <c r="C613">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="D613" t="s">
         <v>183</v>
@@ -9646,13 +9645,13 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B614" t="s">
         <v>185</v>
       </c>
       <c r="C614">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="D614" t="s">
         <v>183</v>
@@ -9660,13 +9659,13 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="2" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="B615" t="s">
         <v>185</v>
       </c>
       <c r="C615">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="D615" t="s">
         <v>183</v>
@@ -9674,13 +9673,13 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B616" t="s">
         <v>185</v>
       </c>
       <c r="C616">
-        <v>80000</v>
+        <v>1000</v>
       </c>
       <c r="D616" t="s">
         <v>183</v>
@@ -9688,13 +9687,13 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B617" t="s">
         <v>185</v>
       </c>
       <c r="C617">
-        <v>1400</v>
+        <v>80000</v>
       </c>
       <c r="D617" t="s">
         <v>183</v>
@@ -9702,13 +9701,13 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B618" t="s">
         <v>185</v>
       </c>
       <c r="C618">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="D618" t="s">
         <v>183</v>
@@ -9716,13 +9715,13 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="2" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="B619" t="s">
         <v>185</v>
       </c>
       <c r="C619">
-        <v>14000</v>
+        <v>100</v>
       </c>
       <c r="D619" t="s">
         <v>183</v>
@@ -9730,13 +9729,13 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B620" t="s">
         <v>185</v>
       </c>
       <c r="C620">
-        <v>12200</v>
+        <v>14000</v>
       </c>
       <c r="D620" t="s">
         <v>183</v>
@@ -9744,13 +9743,13 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B621" t="s">
         <v>185</v>
       </c>
       <c r="C621">
-        <v>1000</v>
+        <v>12200</v>
       </c>
       <c r="D621" t="s">
         <v>183</v>
@@ -9758,13 +9757,13 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B622" t="s">
         <v>185</v>
       </c>
       <c r="C622">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="D622" t="s">
         <v>183</v>
@@ -9772,13 +9771,13 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="2" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="B623" t="s">
         <v>185</v>
       </c>
       <c r="C623">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="D623" t="s">
         <v>183</v>
@@ -9786,13 +9785,13 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B624" t="s">
         <v>185</v>
       </c>
       <c r="C624">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="D624" t="s">
         <v>183</v>
@@ -9800,13 +9799,13 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B625" t="s">
         <v>185</v>
       </c>
       <c r="C625">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D625" t="s">
         <v>183</v>
@@ -9814,21 +9813,21 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B626" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C626">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D626" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B627" t="s">
         <v>197</v>
@@ -9842,27 +9841,27 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B628" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="C628">
-        <v>1582</v>
+        <v>70</v>
       </c>
       <c r="D628" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="B629" t="s">
         <v>144</v>
       </c>
       <c r="C629">
-        <v>41700</v>
+        <v>1582</v>
       </c>
       <c r="D629" t="s">
         <v>138</v>
@@ -9870,13 +9869,13 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="B630" t="s">
         <v>144</v>
       </c>
       <c r="C630">
-        <v>4</v>
+        <v>41700</v>
       </c>
       <c r="D630" t="s">
         <v>138</v>
@@ -9884,13 +9883,13 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B631" t="s">
         <v>144</v>
       </c>
       <c r="C631">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D631" t="s">
         <v>138</v>
@@ -9898,13 +9897,13 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B632" t="s">
         <v>144</v>
       </c>
       <c r="C632">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="D632" t="s">
         <v>138</v>
@@ -9912,13 +9911,13 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B633" t="s">
         <v>144</v>
       </c>
       <c r="C633">
-        <v>616</v>
+        <v>160</v>
       </c>
       <c r="D633" t="s">
         <v>138</v>
@@ -9926,13 +9925,13 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="B634" t="s">
         <v>144</v>
       </c>
       <c r="C634">
-        <v>52</v>
+        <v>616</v>
       </c>
       <c r="D634" t="s">
         <v>138</v>
@@ -9940,13 +9939,13 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="B635" t="s">
         <v>144</v>
       </c>
       <c r="C635">
-        <v>290000</v>
+        <v>52</v>
       </c>
       <c r="D635" t="s">
         <v>138</v>
@@ -9954,13 +9953,13 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B636" t="s">
         <v>144</v>
       </c>
       <c r="C636">
-        <v>4</v>
+        <v>290000</v>
       </c>
       <c r="D636" t="s">
         <v>138</v>
@@ -9968,13 +9967,13 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="2" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="B637" t="s">
         <v>144</v>
       </c>
       <c r="C637">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D637" t="s">
         <v>138</v>
@@ -9982,13 +9981,13 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="B638" t="s">
         <v>144</v>
       </c>
       <c r="C638">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D638" t="s">
         <v>138</v>
@@ -9996,13 +9995,13 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B639" t="s">
         <v>144</v>
       </c>
       <c r="C639">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D639" t="s">
         <v>138</v>
@@ -10010,13 +10009,13 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B640" t="s">
         <v>144</v>
       </c>
       <c r="C640">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D640" t="s">
         <v>138</v>
@@ -10024,13 +10023,13 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B641" t="s">
         <v>144</v>
       </c>
       <c r="C641">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D641" t="s">
         <v>138</v>
@@ -10038,13 +10037,13 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B642" t="s">
         <v>144</v>
       </c>
       <c r="C642">
-        <v>4724</v>
+        <v>8</v>
       </c>
       <c r="D642" t="s">
         <v>138</v>
@@ -10052,13 +10051,13 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B643" t="s">
         <v>144</v>
       </c>
       <c r="C643">
-        <v>144</v>
+        <v>4724</v>
       </c>
       <c r="D643" t="s">
         <v>138</v>
@@ -10066,27 +10065,27 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B644" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="C644">
-        <v>186334</v>
+        <v>144</v>
       </c>
       <c r="D644" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B645" t="s">
         <v>44</v>
       </c>
       <c r="C645">
-        <v>10080</v>
+        <v>186334</v>
       </c>
       <c r="D645" t="s">
         <v>198</v>
@@ -10094,13 +10093,13 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B646" t="s">
         <v>44</v>
       </c>
       <c r="C646">
-        <v>3480</v>
+        <v>10080</v>
       </c>
       <c r="D646" t="s">
         <v>198</v>
@@ -10108,13 +10107,13 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B647" t="s">
         <v>44</v>
       </c>
       <c r="C647">
-        <v>5200</v>
+        <v>3480</v>
       </c>
       <c r="D647" t="s">
         <v>198</v>
@@ -10122,13 +10121,13 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B648" t="s">
         <v>44</v>
       </c>
       <c r="C648">
-        <v>9500</v>
+        <v>5200</v>
       </c>
       <c r="D648" t="s">
         <v>198</v>
@@ -10136,27 +10135,27 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B649" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C649">
-        <v>16</v>
+        <v>9500</v>
       </c>
       <c r="D649" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B650" t="s">
         <v>53</v>
       </c>
       <c r="C650">
-        <v>2000</v>
+        <v>16</v>
       </c>
       <c r="D650" t="s">
         <v>51</v>
@@ -10164,7 +10163,7 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B651" t="s">
         <v>53</v>
@@ -10178,13 +10177,13 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B652" t="s">
         <v>53</v>
       </c>
       <c r="C652">
-        <v>420</v>
+        <v>2000</v>
       </c>
       <c r="D652" t="s">
         <v>51</v>
@@ -10192,13 +10191,13 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B653" t="s">
         <v>53</v>
       </c>
       <c r="C653">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="D653" t="s">
         <v>51</v>
@@ -10206,13 +10205,13 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B654" t="s">
         <v>53</v>
       </c>
       <c r="C654">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D654" t="s">
         <v>51</v>
@@ -10220,13 +10219,13 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B655" t="s">
         <v>53</v>
       </c>
       <c r="C655">
-        <v>66</v>
+        <v>1500</v>
       </c>
       <c r="D655" t="s">
         <v>51</v>
@@ -10234,27 +10233,27 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B656" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C656">
-        <v>5000</v>
+        <v>66</v>
       </c>
       <c r="D656" t="s">
-        <v>199</v>
+        <v>51</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B657" t="s">
         <v>60</v>
       </c>
       <c r="C657">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D657" t="s">
         <v>199</v>
@@ -10262,13 +10261,13 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B658" t="s">
         <v>60</v>
       </c>
       <c r="C658">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="D658" t="s">
         <v>199</v>
@@ -10276,13 +10275,13 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="B659" t="s">
         <v>60</v>
       </c>
       <c r="C659">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D659" t="s">
         <v>199</v>
@@ -10290,13 +10289,13 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="B660" t="s">
         <v>60</v>
       </c>
       <c r="C660">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="D660" t="s">
         <v>199</v>
@@ -10304,13 +10303,13 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B661" t="s">
         <v>60</v>
       </c>
       <c r="C661">
-        <v>20</v>
+        <v>30000</v>
       </c>
       <c r="D661" t="s">
         <v>199</v>
@@ -10318,13 +10317,13 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B662" t="s">
         <v>60</v>
       </c>
       <c r="C662">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D662" t="s">
         <v>199</v>
@@ -10332,13 +10331,13 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="B663" t="s">
         <v>60</v>
       </c>
       <c r="C663">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D663" t="s">
         <v>199</v>
@@ -10346,13 +10345,13 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="B664" t="s">
         <v>60</v>
       </c>
       <c r="C664">
-        <v>1200000</v>
+        <v>100</v>
       </c>
       <c r="D664" t="s">
         <v>199</v>
@@ -10360,13 +10359,13 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B665" t="s">
         <v>60</v>
       </c>
       <c r="C665">
-        <v>6000</v>
+        <v>1200000</v>
       </c>
       <c r="D665" t="s">
         <v>199</v>
@@ -10374,13 +10373,13 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B666" t="s">
         <v>60</v>
       </c>
       <c r="C666">
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="D666" t="s">
         <v>199</v>
@@ -10388,13 +10387,13 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B667" t="s">
         <v>60</v>
       </c>
       <c r="C667">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D667" t="s">
         <v>199</v>
@@ -10402,13 +10401,13 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="B668" t="s">
         <v>60</v>
       </c>
       <c r="C668">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="D668" t="s">
         <v>199</v>
@@ -10416,7 +10415,7 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B669" t="s">
         <v>60</v>
@@ -10430,13 +10429,13 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="B670" t="s">
         <v>60</v>
       </c>
       <c r="C670">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="D670" t="s">
         <v>199</v>
@@ -10444,13 +10443,13 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B671" t="s">
         <v>60</v>
       </c>
       <c r="C671">
-        <v>48</v>
+        <v>2000</v>
       </c>
       <c r="D671" t="s">
         <v>199</v>
@@ -10458,13 +10457,13 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B672" t="s">
         <v>60</v>
       </c>
       <c r="C672">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D672" t="s">
         <v>199</v>
@@ -10472,27 +10471,27 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B673" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C673">
-        <v>660</v>
+        <v>20</v>
       </c>
       <c r="D673" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B674" t="s">
         <v>35</v>
       </c>
       <c r="C674">
-        <v>1200</v>
+        <v>660</v>
       </c>
       <c r="D674" t="s">
         <v>45</v>
@@ -10500,13 +10499,13 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B675" t="s">
         <v>35</v>
       </c>
       <c r="C675">
-        <v>810</v>
+        <v>1200</v>
       </c>
       <c r="D675" t="s">
         <v>45</v>
@@ -10514,13 +10513,13 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B676" t="s">
         <v>35</v>
       </c>
       <c r="C676">
-        <v>1184</v>
+        <v>810</v>
       </c>
       <c r="D676" t="s">
         <v>45</v>
@@ -10528,13 +10527,13 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B677" t="s">
         <v>35</v>
       </c>
       <c r="C677">
-        <v>78</v>
+        <v>1184</v>
       </c>
       <c r="D677" t="s">
         <v>45</v>
@@ -10542,13 +10541,13 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B678" t="s">
         <v>35</v>
       </c>
       <c r="C678">
-        <v>612</v>
+        <v>78</v>
       </c>
       <c r="D678" t="s">
         <v>45</v>
@@ -10556,27 +10555,27 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B679" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="C679">
-        <v>500</v>
+        <v>612</v>
       </c>
       <c r="D679" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B680" t="s">
         <v>119</v>
       </c>
       <c r="C680">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D680" t="s">
         <v>109</v>
@@ -10584,13 +10583,13 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B681" t="s">
         <v>119</v>
       </c>
       <c r="C681">
-        <v>65</v>
+        <v>2000</v>
       </c>
       <c r="D681" t="s">
         <v>109</v>
@@ -10598,13 +10597,13 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B682" t="s">
         <v>119</v>
       </c>
       <c r="C682">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D682" t="s">
         <v>109</v>
@@ -10612,13 +10611,13 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B683" t="s">
         <v>119</v>
       </c>
       <c r="C683">
-        <v>1200</v>
+        <v>80</v>
       </c>
       <c r="D683" t="s">
         <v>109</v>
@@ -10626,13 +10625,13 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B684" t="s">
         <v>119</v>
       </c>
       <c r="C684">
-        <v>27</v>
+        <v>1200</v>
       </c>
       <c r="D684" t="s">
         <v>109</v>
@@ -10640,27 +10639,27 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B685" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="C685">
-        <v>1232</v>
+        <v>27</v>
       </c>
       <c r="D685" t="s">
-        <v>205</v>
+        <v>109</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B686" t="s">
         <v>204</v>
       </c>
       <c r="C686">
-        <v>56</v>
+        <v>1232</v>
       </c>
       <c r="D686" t="s">
         <v>205</v>
@@ -10668,13 +10667,13 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B687" t="s">
         <v>204</v>
       </c>
       <c r="C687">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D687" t="s">
         <v>205</v>
@@ -10682,13 +10681,13 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B688" t="s">
         <v>204</v>
       </c>
       <c r="C688">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D688" t="s">
         <v>205</v>
@@ -10696,13 +10695,13 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B689" t="s">
         <v>204</v>
       </c>
       <c r="C689">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D689" t="s">
         <v>205</v>
@@ -10710,13 +10709,13 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B690" t="s">
         <v>204</v>
       </c>
       <c r="C690">
-        <v>135000</v>
+        <v>10</v>
       </c>
       <c r="D690" t="s">
         <v>205</v>
@@ -10724,13 +10723,13 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B691" t="s">
         <v>204</v>
       </c>
       <c r="C691">
-        <v>6</v>
+        <v>135000</v>
       </c>
       <c r="D691" t="s">
         <v>205</v>
@@ -10738,13 +10737,13 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B692" t="s">
         <v>204</v>
       </c>
       <c r="C692">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D692" t="s">
         <v>205</v>
@@ -10752,13 +10751,13 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B693" t="s">
         <v>204</v>
       </c>
       <c r="C693">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D693" t="s">
         <v>205</v>
@@ -10766,7 +10765,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B694" t="s">
         <v>204</v>
@@ -10780,13 +10779,13 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B695" t="s">
         <v>204</v>
       </c>
       <c r="C695">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="D695" t="s">
         <v>205</v>
@@ -10794,27 +10793,27 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B696" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="C696">
-        <v>502</v>
+        <v>320</v>
       </c>
       <c r="D696" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="B697" t="s">
         <v>146</v>
       </c>
       <c r="C697">
-        <v>4240</v>
+        <v>502</v>
       </c>
       <c r="D697" t="s">
         <v>138</v>
@@ -10822,13 +10821,13 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="2" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="B698" t="s">
         <v>146</v>
       </c>
       <c r="C698">
-        <v>246</v>
+        <v>4240</v>
       </c>
       <c r="D698" t="s">
         <v>138</v>
@@ -10836,13 +10835,13 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B699" t="s">
         <v>146</v>
       </c>
       <c r="C699">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="D699" t="s">
         <v>138</v>
@@ -10850,13 +10849,13 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B700" t="s">
         <v>146</v>
       </c>
       <c r="C700">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D700" t="s">
         <v>138</v>
@@ -10864,13 +10863,13 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B701" t="s">
         <v>146</v>
       </c>
       <c r="C701">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="D701" t="s">
         <v>138</v>
@@ -10878,13 +10877,13 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B702" t="s">
         <v>146</v>
       </c>
       <c r="C702">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="D702" t="s">
         <v>138</v>
@@ -10892,13 +10891,13 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B703" t="s">
         <v>146</v>
       </c>
       <c r="C703">
-        <v>892</v>
+        <v>8</v>
       </c>
       <c r="D703" t="s">
         <v>138</v>
@@ -10906,13 +10905,13 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B704" t="s">
         <v>146</v>
       </c>
       <c r="C704">
-        <v>50</v>
+        <v>892</v>
       </c>
       <c r="D704" t="s">
         <v>138</v>
@@ -10920,27 +10919,27 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B705" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="C705">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="D705" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B706" t="s">
         <v>38</v>
       </c>
       <c r="C706">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="D706" t="s">
         <v>57</v>
@@ -10948,13 +10947,13 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B707" t="s">
         <v>38</v>
       </c>
       <c r="C707">
-        <v>303</v>
+        <v>36</v>
       </c>
       <c r="D707" t="s">
         <v>57</v>
@@ -10962,13 +10961,13 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B708" t="s">
         <v>38</v>
       </c>
       <c r="C708">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="D708" t="s">
         <v>57</v>
@@ -10976,13 +10975,13 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B709" t="s">
         <v>38</v>
       </c>
       <c r="C709">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D709" t="s">
         <v>57</v>
@@ -10990,13 +10989,13 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B710" t="s">
         <v>38</v>
       </c>
       <c r="C710">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D710" t="s">
         <v>57</v>
@@ -11004,27 +11003,27 @@
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B711" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C711">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D711" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B712" t="s">
         <v>22</v>
       </c>
       <c r="C712">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D712" t="s">
         <v>23</v>
@@ -11032,13 +11031,13 @@
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B713" t="s">
         <v>22</v>
       </c>
       <c r="C713">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="D713" t="s">
         <v>23</v>
@@ -11046,13 +11045,13 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B714" t="s">
         <v>22</v>
       </c>
       <c r="C714">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D714" t="s">
         <v>23</v>
@@ -11060,13 +11059,13 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B715" t="s">
         <v>22</v>
       </c>
       <c r="C715">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="D715" t="s">
         <v>23</v>
@@ -11074,13 +11073,13 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B716" t="s">
         <v>22</v>
       </c>
       <c r="C716">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D716" t="s">
         <v>23</v>
@@ -11088,13 +11087,13 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B717" t="s">
         <v>22</v>
       </c>
       <c r="C717">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D717" t="s">
         <v>23</v>
@@ -11102,13 +11101,13 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B718" t="s">
         <v>22</v>
       </c>
       <c r="C718">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D718" t="s">
         <v>23</v>
@@ -11116,13 +11115,13 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B719" t="s">
         <v>22</v>
       </c>
       <c r="C719">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D719" t="s">
         <v>23</v>
@@ -11130,13 +11129,13 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B720" t="s">
         <v>22</v>
       </c>
       <c r="C720">
-        <v>525</v>
+        <v>215</v>
       </c>
       <c r="D720" t="s">
         <v>23</v>
@@ -11144,13 +11143,13 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B721" t="s">
         <v>22</v>
       </c>
       <c r="C721">
-        <v>170</v>
+        <v>525</v>
       </c>
       <c r="D721" t="s">
         <v>23</v>
@@ -11158,97 +11157,97 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B722" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="C722">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="D722" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B723" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C723">
-        <v>57310</v>
+        <v>24</v>
       </c>
       <c r="D723" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B724" t="s">
         <v>94</v>
       </c>
       <c r="C724">
-        <v>150</v>
+        <v>57310</v>
       </c>
       <c r="D724" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B725" t="s">
         <v>94</v>
       </c>
       <c r="C725">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="D725" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B726" t="s">
         <v>94</v>
       </c>
       <c r="C726">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="D726" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="2" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B727" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="C727">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D727" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B728" t="s">
         <v>209</v>
       </c>
       <c r="C728">
-        <v>3000000</v>
+        <v>15</v>
       </c>
       <c r="D728" t="s">
         <v>203</v>
@@ -11256,13 +11255,13 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B729" t="s">
         <v>209</v>
       </c>
       <c r="C729">
-        <v>10</v>
+        <v>3000000</v>
       </c>
       <c r="D729" t="s">
         <v>203</v>
@@ -11270,27 +11269,27 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B730" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C730">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D730" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B731" t="s">
         <v>210</v>
       </c>
       <c r="C731">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="D731" t="s">
         <v>121</v>
@@ -11298,13 +11297,13 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B732" t="s">
         <v>210</v>
       </c>
       <c r="C732">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="D732" t="s">
         <v>121</v>
@@ -11312,27 +11311,27 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B733" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="C733">
-        <v>6200</v>
+        <v>750</v>
       </c>
       <c r="D733" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B734" t="s">
         <v>12</v>
       </c>
       <c r="C734">
-        <v>737</v>
+        <v>6200</v>
       </c>
       <c r="D734" t="s">
         <v>24</v>
@@ -11340,13 +11339,13 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B735" t="s">
         <v>12</v>
       </c>
       <c r="C735">
-        <v>55160</v>
+        <v>737</v>
       </c>
       <c r="D735" t="s">
         <v>24</v>
@@ -11354,13 +11353,13 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B736" t="s">
         <v>12</v>
       </c>
       <c r="C736">
-        <v>2481</v>
+        <v>55160</v>
       </c>
       <c r="D736" t="s">
         <v>24</v>
@@ -11368,13 +11367,13 @@
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B737" t="s">
         <v>12</v>
       </c>
       <c r="C737">
-        <v>378</v>
+        <v>2481</v>
       </c>
       <c r="D737" t="s">
         <v>24</v>
@@ -11382,13 +11381,13 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="B738" t="s">
         <v>12</v>
       </c>
       <c r="C738">
-        <v>2</v>
+        <v>378</v>
       </c>
       <c r="D738" t="s">
         <v>24</v>
@@ -11396,13 +11395,13 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" s="2" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="B739" t="s">
         <v>12</v>
       </c>
       <c r="C739">
-        <v>26774</v>
+        <v>2</v>
       </c>
       <c r="D739" t="s">
         <v>24</v>
@@ -11410,13 +11409,13 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B740" t="s">
         <v>12</v>
       </c>
       <c r="C740">
-        <v>6</v>
+        <v>26774</v>
       </c>
       <c r="D740" t="s">
         <v>24</v>
@@ -11424,13 +11423,13 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B741" t="s">
         <v>12</v>
       </c>
       <c r="C741">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D741" t="s">
         <v>24</v>
@@ -11438,13 +11437,13 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B742" t="s">
         <v>12</v>
       </c>
       <c r="C742">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="D742" t="s">
         <v>24</v>
@@ -11452,13 +11451,13 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B743" t="s">
         <v>12</v>
       </c>
       <c r="C743">
-        <v>2507</v>
+        <v>250</v>
       </c>
       <c r="D743" t="s">
         <v>24</v>
@@ -11466,13 +11465,13 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B744" t="s">
         <v>12</v>
       </c>
       <c r="C744">
-        <v>3355</v>
+        <v>2507</v>
       </c>
       <c r="D744" t="s">
         <v>24</v>
@@ -11480,13 +11479,13 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B745" t="s">
         <v>12</v>
       </c>
       <c r="C745">
-        <v>397</v>
+        <v>3355</v>
       </c>
       <c r="D745" t="s">
         <v>24</v>
@@ -11494,27 +11493,27 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B746" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C746">
-        <v>140</v>
+        <v>397</v>
       </c>
       <c r="D746" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B747" t="s">
         <v>25</v>
       </c>
       <c r="C747">
-        <v>544</v>
+        <v>140</v>
       </c>
       <c r="D747" t="s">
         <v>26</v>
@@ -11522,13 +11521,13 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B748" t="s">
         <v>25</v>
       </c>
       <c r="C748">
-        <v>8500</v>
+        <v>544</v>
       </c>
       <c r="D748" t="s">
         <v>26</v>
@@ -11536,13 +11535,13 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B749" t="s">
         <v>25</v>
       </c>
       <c r="C749">
-        <v>250</v>
+        <v>8500</v>
       </c>
       <c r="D749" t="s">
         <v>26</v>
@@ -11550,13 +11549,13 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B750" t="s">
         <v>25</v>
       </c>
       <c r="C750">
-        <v>176088</v>
+        <v>250</v>
       </c>
       <c r="D750" t="s">
         <v>26</v>
@@ -11564,13 +11563,13 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B751" t="s">
         <v>25</v>
       </c>
       <c r="C751">
-        <v>764</v>
+        <v>176088</v>
       </c>
       <c r="D751" t="s">
         <v>26</v>
@@ -11578,13 +11577,13 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B752" t="s">
         <v>25</v>
       </c>
       <c r="C752">
-        <v>42</v>
+        <v>764</v>
       </c>
       <c r="D752" t="s">
         <v>26</v>
@@ -11592,13 +11591,13 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B753" t="s">
         <v>25</v>
       </c>
       <c r="C753">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="D753" t="s">
         <v>26</v>
@@ -11606,13 +11605,13 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B754" t="s">
         <v>25</v>
       </c>
       <c r="C754">
-        <v>1782</v>
+        <v>150</v>
       </c>
       <c r="D754" t="s">
         <v>26</v>
@@ -11620,27 +11619,27 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B755" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="C755">
-        <v>7092</v>
+        <v>1782</v>
       </c>
       <c r="D755" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B756" t="s">
         <v>219</v>
       </c>
       <c r="C756">
-        <v>474</v>
+        <v>7092</v>
       </c>
       <c r="D756" t="s">
         <v>220</v>
@@ -11648,13 +11647,13 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B757" t="s">
         <v>219</v>
       </c>
       <c r="C757">
-        <v>27</v>
+        <v>474</v>
       </c>
       <c r="D757" t="s">
         <v>220</v>
@@ -11662,13 +11661,13 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B758" t="s">
         <v>219</v>
       </c>
       <c r="C758">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D758" t="s">
         <v>220</v>
@@ -11676,13 +11675,13 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B759" t="s">
         <v>219</v>
       </c>
       <c r="C759">
-        <v>4413</v>
+        <v>11</v>
       </c>
       <c r="D759" t="s">
         <v>220</v>
@@ -11690,13 +11689,13 @@
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B760" t="s">
         <v>219</v>
       </c>
       <c r="C760">
-        <v>27</v>
+        <v>4413</v>
       </c>
       <c r="D760" t="s">
         <v>220</v>
@@ -11704,13 +11703,13 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B761" t="s">
         <v>219</v>
       </c>
       <c r="C761">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D761" t="s">
         <v>220</v>
@@ -11718,13 +11717,13 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B762" t="s">
         <v>219</v>
       </c>
       <c r="C762">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D762" t="s">
         <v>220</v>
@@ -11732,13 +11731,13 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B763" t="s">
         <v>219</v>
       </c>
       <c r="C763">
-        <v>864</v>
+        <v>2</v>
       </c>
       <c r="D763" t="s">
         <v>220</v>
@@ -11746,21 +11745,21 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B764" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C764">
-        <v>2000</v>
+        <v>864</v>
       </c>
       <c r="D764" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B765" t="s">
         <v>200</v>
@@ -11774,13 +11773,13 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B766" t="s">
         <v>200</v>
       </c>
       <c r="C766">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D766" t="s">
         <v>202</v>
@@ -11788,13 +11787,13 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B767" t="s">
         <v>200</v>
       </c>
       <c r="C767">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D767" t="s">
         <v>202</v>
@@ -11802,13 +11801,13 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B768" t="s">
         <v>200</v>
       </c>
       <c r="C768">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="D768" t="s">
         <v>202</v>
@@ -11816,13 +11815,13 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B769" t="s">
         <v>200</v>
       </c>
       <c r="C769">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="D769" t="s">
         <v>202</v>
@@ -11830,27 +11829,27 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B770" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="C770">
-        <v>540</v>
+        <v>3000</v>
       </c>
       <c r="D770" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B771" t="s">
         <v>48</v>
       </c>
       <c r="C771">
-        <v>860</v>
+        <v>540</v>
       </c>
       <c r="D771" t="s">
         <v>45</v>
@@ -11858,13 +11857,13 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B772" t="s">
         <v>48</v>
       </c>
       <c r="C772">
-        <v>310</v>
+        <v>860</v>
       </c>
       <c r="D772" t="s">
         <v>45</v>
@@ -11872,13 +11871,13 @@
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B773" t="s">
         <v>48</v>
       </c>
       <c r="C773">
-        <v>60</v>
+        <v>310</v>
       </c>
       <c r="D773" t="s">
         <v>45</v>
@@ -11886,13 +11885,13 @@
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B774" t="s">
         <v>48</v>
       </c>
       <c r="C774">
-        <v>560</v>
+        <v>60</v>
       </c>
       <c r="D774" t="s">
         <v>45</v>
@@ -11900,13 +11899,13 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B775" t="s">
         <v>48</v>
       </c>
       <c r="C775">
-        <v>55</v>
+        <v>560</v>
       </c>
       <c r="D775" t="s">
         <v>45</v>
@@ -11914,13 +11913,13 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B776" t="s">
         <v>48</v>
       </c>
       <c r="C776">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="D776" t="s">
         <v>45</v>
@@ -11928,27 +11927,27 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B777" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="C777">
-        <v>1040</v>
+        <v>175</v>
       </c>
       <c r="D777" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B778" t="s">
         <v>108</v>
       </c>
       <c r="C778">
-        <v>780</v>
+        <v>1040</v>
       </c>
       <c r="D778" t="s">
         <v>104</v>
@@ -11956,13 +11955,13 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B779" t="s">
         <v>108</v>
       </c>
       <c r="C779">
-        <v>24</v>
+        <v>780</v>
       </c>
       <c r="D779" t="s">
         <v>104</v>
@@ -11970,41 +11969,41 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" s="2" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B780" t="s">
         <v>108</v>
       </c>
       <c r="C780">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D780" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B781" t="s">
         <v>108</v>
       </c>
       <c r="C781">
-        <v>750</v>
+        <v>60</v>
       </c>
       <c r="D781" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B782" t="s">
         <v>108</v>
       </c>
       <c r="C782">
-        <v>74000</v>
+        <v>750</v>
       </c>
       <c r="D782" t="s">
         <v>104</v>
@@ -12012,55 +12011,55 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B783" t="s">
         <v>108</v>
       </c>
       <c r="C783">
-        <v>54</v>
+        <v>74000</v>
       </c>
       <c r="D783" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B784" t="s">
         <v>108</v>
       </c>
       <c r="C784">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D784" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B785" t="s">
         <v>108</v>
       </c>
       <c r="C785">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D785" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B786" t="s">
         <v>108</v>
       </c>
       <c r="C786">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D786" t="s">
         <v>109</v>
@@ -12068,41 +12067,41 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B787" t="s">
         <v>108</v>
       </c>
       <c r="C787">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D787" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B788" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="C788">
-        <v>1000</v>
+        <v>57</v>
       </c>
       <c r="D788" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B789" t="s">
         <v>18</v>
       </c>
       <c r="C789">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D789" t="s">
         <v>19</v>
@@ -12110,13 +12109,13 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B790" t="s">
         <v>18</v>
       </c>
       <c r="C790">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D790" t="s">
         <v>19</v>
@@ -12124,13 +12123,13 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B791" t="s">
         <v>18</v>
       </c>
       <c r="C791">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D791" t="s">
         <v>19</v>
@@ -12138,27 +12137,27 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B792" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C792">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D792" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B793" t="s">
         <v>46</v>
       </c>
       <c r="C793">
-        <v>1068</v>
+        <v>11</v>
       </c>
       <c r="D793" t="s">
         <v>45</v>
@@ -12166,13 +12165,13 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B794" t="s">
         <v>46</v>
       </c>
       <c r="C794">
-        <v>505</v>
+        <v>1068</v>
       </c>
       <c r="D794" t="s">
         <v>45</v>
@@ -12180,13 +12179,13 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B795" t="s">
         <v>46</v>
       </c>
       <c r="C795">
-        <v>754</v>
+        <v>505</v>
       </c>
       <c r="D795" t="s">
         <v>45</v>
@@ -12194,13 +12193,13 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B796" t="s">
         <v>46</v>
       </c>
       <c r="C796">
-        <v>3</v>
+        <v>754</v>
       </c>
       <c r="D796" t="s">
         <v>45</v>
@@ -12208,35 +12207,35 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B797" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C797">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D797" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B798" t="s">
         <v>30</v>
       </c>
       <c r="C798">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="D798" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B799" t="s">
         <v>30</v>
@@ -12250,13 +12249,13 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B800" t="s">
         <v>30</v>
       </c>
       <c r="C800">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D800" t="s">
         <v>50</v>
@@ -12264,27 +12263,27 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B801" t="s">
         <v>30</v>
       </c>
       <c r="C801">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="D801" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B802" t="s">
         <v>30</v>
       </c>
       <c r="C802">
-        <v>10</v>
+        <v>1600</v>
       </c>
       <c r="D802" t="s">
         <v>56</v>
@@ -12292,13 +12291,13 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B803" t="s">
         <v>30</v>
       </c>
       <c r="C803">
-        <v>2300</v>
+        <v>10</v>
       </c>
       <c r="D803" t="s">
         <v>56</v>
@@ -12306,27 +12305,27 @@
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804" s="2" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B804" t="s">
         <v>30</v>
       </c>
       <c r="C804">
-        <v>82</v>
+        <v>2300</v>
       </c>
       <c r="D804" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B805" t="s">
         <v>30</v>
       </c>
       <c r="C805">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="D805" t="s">
         <v>50</v>
@@ -12334,27 +12333,27 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B806" t="s">
         <v>30</v>
       </c>
       <c r="C806">
-        <v>6</v>
+        <v>450</v>
       </c>
       <c r="D806" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B807" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C807">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D807" t="s">
         <v>56</v>
@@ -12362,7 +12361,7 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B808" t="s">
         <v>55</v>
@@ -12376,13 +12375,13 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B809" t="s">
         <v>55</v>
       </c>
       <c r="C809">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="D809" t="s">
         <v>56</v>
@@ -12390,13 +12389,13 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A810" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B810" t="s">
         <v>55</v>
       </c>
       <c r="C810">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="D810" t="s">
         <v>56</v>
@@ -12404,13 +12403,13 @@
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A811" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B811" t="s">
         <v>55</v>
       </c>
       <c r="C811">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="D811" t="s">
         <v>56</v>
@@ -12418,13 +12417,13 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A812" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B812" t="s">
         <v>55</v>
       </c>
       <c r="C812">
-        <v>40</v>
+        <v>1600</v>
       </c>
       <c r="D812" t="s">
         <v>56</v>
@@ -12432,7 +12431,7 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A813" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B813" t="s">
         <v>55</v>
@@ -12446,13 +12445,13 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A814" s="2" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B814" t="s">
         <v>55</v>
       </c>
       <c r="C814">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D814" t="s">
         <v>56</v>
@@ -12460,13 +12459,13 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A815" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B815" t="s">
         <v>55</v>
       </c>
       <c r="C815">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="D815" t="s">
         <v>56</v>
@@ -12474,13 +12473,13 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A816" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B816" t="s">
         <v>55</v>
       </c>
       <c r="C816">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D816" t="s">
         <v>56</v>
@@ -12488,27 +12487,27 @@
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A817" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B817" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="C817">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D817" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A818" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B818" t="s">
         <v>201</v>
       </c>
       <c r="C818">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="D818" t="s">
         <v>203</v>
@@ -12516,13 +12515,13 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A819" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B819" t="s">
         <v>201</v>
       </c>
       <c r="C819">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D819" t="s">
         <v>203</v>
@@ -12530,41 +12529,41 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A820" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B820" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C820">
-        <v>21104</v>
+        <v>2000</v>
       </c>
       <c r="D820" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A821" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B821" t="s">
         <v>212</v>
       </c>
       <c r="C821">
-        <v>150</v>
+        <v>21104</v>
       </c>
       <c r="D821" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A822" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B822" t="s">
         <v>212</v>
       </c>
       <c r="C822">
-        <v>10000</v>
+        <v>150</v>
       </c>
       <c r="D822" t="s">
         <v>213</v>
@@ -12572,13 +12571,13 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A823" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B823" t="s">
         <v>212</v>
       </c>
       <c r="C823">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="D823" t="s">
         <v>213</v>
@@ -12586,27 +12585,27 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A824" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B824" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="C824">
-        <v>1300</v>
+        <v>150</v>
       </c>
       <c r="D824" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A825" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B825" t="s">
         <v>34</v>
       </c>
       <c r="C825">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="D825" t="s">
         <v>51</v>
@@ -12614,13 +12613,13 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A826" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B826" t="s">
         <v>34</v>
       </c>
       <c r="C826">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="D826" t="s">
         <v>51</v>
@@ -12628,13 +12627,13 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A827" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B827" t="s">
         <v>34</v>
       </c>
       <c r="C827">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D827" t="s">
         <v>51</v>
@@ -12642,13 +12641,13 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A828" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B828" t="s">
         <v>34</v>
       </c>
       <c r="C828">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D828" t="s">
         <v>51</v>
@@ -12656,13 +12655,13 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A829" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B829" t="s">
         <v>34</v>
       </c>
       <c r="C829">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D829" t="s">
         <v>51</v>
@@ -12670,13 +12669,13 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A830" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B830" t="s">
         <v>34</v>
       </c>
       <c r="C830">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D830" t="s">
         <v>51</v>
@@ -12684,27 +12683,27 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A831" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B831" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="C831">
-        <v>2876</v>
+        <v>550</v>
       </c>
       <c r="D831" t="s">
-        <v>216</v>
+        <v>51</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A832" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B832" t="s">
         <v>215</v>
       </c>
       <c r="C832">
-        <v>1702</v>
+        <v>2876</v>
       </c>
       <c r="D832" t="s">
         <v>216</v>
@@ -12712,13 +12711,13 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A833" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B833" t="s">
         <v>215</v>
       </c>
       <c r="C833">
-        <v>6000</v>
+        <v>1702</v>
       </c>
       <c r="D833" t="s">
         <v>216</v>
@@ -12726,13 +12725,13 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A834" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B834" t="s">
         <v>215</v>
       </c>
       <c r="C834">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="D834" t="s">
         <v>216</v>
@@ -12740,13 +12739,13 @@
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A835" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B835" t="s">
         <v>215</v>
       </c>
       <c r="C835">
-        <v>3800</v>
+        <v>2</v>
       </c>
       <c r="D835" t="s">
         <v>216</v>
@@ -12754,13 +12753,13 @@
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A836" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B836" t="s">
         <v>215</v>
       </c>
       <c r="C836">
-        <v>422</v>
+        <v>3800</v>
       </c>
       <c r="D836" t="s">
         <v>216</v>
@@ -12768,13 +12767,13 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A837" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B837" t="s">
         <v>215</v>
       </c>
       <c r="C837">
-        <v>13376</v>
+        <v>422</v>
       </c>
       <c r="D837" t="s">
         <v>216</v>
@@ -12782,27 +12781,27 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A838" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B838" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C838">
-        <v>10</v>
+        <v>13376</v>
       </c>
       <c r="D838" t="s">
-        <v>56</v>
+        <v>216</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A839" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B839" t="s">
         <v>211</v>
       </c>
       <c r="C839">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D839" t="s">
         <v>56</v>
@@ -12810,13 +12809,13 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B840" t="s">
         <v>211</v>
       </c>
       <c r="C840">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D840" t="s">
         <v>56</v>
@@ -12824,13 +12823,13 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A841" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B841" t="s">
         <v>211</v>
       </c>
       <c r="C841">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D841" t="s">
         <v>56</v>
@@ -12838,13 +12837,13 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A842" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B842" t="s">
         <v>211</v>
       </c>
       <c r="C842">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D842" t="s">
         <v>56</v>
@@ -12852,7 +12851,7 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A843" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B843" t="s">
         <v>211</v>
@@ -12866,7 +12865,7 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A844" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B844" t="s">
         <v>211</v>
@@ -12880,13 +12879,13 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A845" s="2" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="B845" t="s">
         <v>211</v>
       </c>
       <c r="C845">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D845" t="s">
         <v>56</v>
@@ -12894,13 +12893,13 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A846" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B846" t="s">
         <v>211</v>
       </c>
       <c r="C846">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D846" t="s">
         <v>56</v>
@@ -12908,27 +12907,27 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A847" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B847" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C847">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="D847" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A848" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B848" t="s">
         <v>217</v>
       </c>
       <c r="C848">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D848" t="s">
         <v>218</v>
@@ -12936,13 +12935,13 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B849" t="s">
         <v>217</v>
       </c>
       <c r="C849">
-        <v>176</v>
+        <v>1000</v>
       </c>
       <c r="D849" t="s">
         <v>218</v>
@@ -12950,13 +12949,13 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850" s="2" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B850" t="s">
         <v>217</v>
       </c>
       <c r="C850">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="D850" t="s">
         <v>218</v>
@@ -12964,13 +12963,13 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B851" t="s">
         <v>217</v>
       </c>
       <c r="C851">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="D851" t="s">
         <v>218</v>
@@ -12978,13 +12977,13 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B852" t="s">
         <v>217</v>
       </c>
       <c r="C852">
-        <v>50000</v>
+        <v>400</v>
       </c>
       <c r="D852" t="s">
         <v>218</v>
@@ -12992,13 +12991,13 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A853" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B853" t="s">
         <v>217</v>
       </c>
       <c r="C853">
-        <v>60</v>
+        <v>50000</v>
       </c>
       <c r="D853" t="s">
         <v>218</v>
@@ -13006,13 +13005,13 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A854" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B854" t="s">
         <v>217</v>
       </c>
       <c r="C854">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D854" t="s">
         <v>218</v>
@@ -13020,13 +13019,13 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A855" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B855" t="s">
         <v>217</v>
       </c>
       <c r="C855">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D855" t="s">
         <v>218</v>
@@ -13034,13 +13033,13 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A856" s="2" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="B856" t="s">
         <v>217</v>
       </c>
       <c r="C856">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D856" t="s">
         <v>218</v>
@@ -13048,7 +13047,7 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A857" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B857" t="s">
         <v>217</v>
@@ -13062,13 +13061,13 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A858" s="2" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="B858" t="s">
         <v>217</v>
       </c>
       <c r="C858">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D858" t="s">
         <v>218</v>
@@ -13076,13 +13075,13 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A859" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B859" t="s">
         <v>217</v>
       </c>
       <c r="C859">
-        <v>313</v>
+        <v>70</v>
       </c>
       <c r="D859" t="s">
         <v>218</v>
@@ -13090,13 +13089,13 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B860" t="s">
         <v>217</v>
       </c>
       <c r="C860">
-        <v>3000</v>
+        <v>313</v>
       </c>
       <c r="D860" t="s">
         <v>218</v>
@@ -13104,21 +13103,35 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B861" t="s">
+        <v>217</v>
+      </c>
+      <c r="C861">
+        <v>3000</v>
+      </c>
+      <c r="D861" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A862" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B861" t="s">
+      <c r="B862" t="s">
         <v>118</v>
       </c>
-      <c r="C861">
+      <c r="C862">
         <v>70</v>
       </c>
-      <c r="D861" t="s">
+      <c r="D862" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D861">
-    <sortCondition ref="B1:B861"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D862">
+    <sortCondition ref="B1:B862"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
